--- a/data/raw/expert_scores.xlsx
+++ b/data/raw/expert_scores.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universiteittwente-my.sharepoint.com/personal/m_sikora_utwente_nl/Documents/Desktop/PhD_Stress-In-Action/01_Database/Dashboard/relational/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{B8FE1228-C429-432C-94A2-C1F64831892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9146344-F82D-4557-AF01-C856474CB12B}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{B8FE1228-C429-432C-94A2-C1F64831892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC25A23-20B7-4295-A2AA-443983374659}"/>
   <bookViews>
     <workbookView xWindow="-12960" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{2C9CAB11-EC45-49EE-BE20-1107D0FD28A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,58 +36,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="28">
   <si>
     <t>device_id</t>
   </si>
   <si>
+    <t>score_type</t>
+  </si>
+  <si>
+    <t>score_by</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
     <t>001_sia_wd_emp</t>
   </si>
   <si>
+    <t>short-term</t>
+  </si>
+  <si>
+    <t>rev1</t>
+  </si>
+  <si>
+    <t>long-term</t>
+  </si>
+  <si>
+    <t>rev2</t>
+  </si>
+  <si>
+    <t>rev3</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
     <t>002_sia_wd_emp</t>
   </si>
   <si>
-    <t>score_type</t>
-  </si>
-  <si>
-    <t>score_by</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>short-term</t>
-  </si>
-  <si>
-    <t>long-term</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>rev1</t>
-  </si>
-  <si>
-    <t>rev2</t>
-  </si>
-  <si>
-    <t>rev3</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
     <t>5.7</t>
+  </si>
+  <si>
+    <t>003_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>004_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>005_sia_wd_fit</t>
+  </si>
+  <si>
+    <t>006_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>007_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>008_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>009_sia_wd_our</t>
+  </si>
+  <si>
+    <t>010_sia_wd_min</t>
+  </si>
+  <si>
+    <t>011_sia_wd_nov</t>
+  </si>
+  <si>
+    <t>012_sia_wd_car</t>
+  </si>
+  <si>
+    <t>013_sia_wd_app</t>
+  </si>
+  <si>
+    <t>014_sia_wd_app</t>
+  </si>
+  <si>
+    <t>015_sia_wd_app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +148,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,17 +180,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -155,6 +208,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,273 +552,2086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AC09CD-A4FA-4E91-BDBC-BF7CF9B4D46E}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A41" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A65" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
+      <c r="A66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
+      <c r="A68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
+      <c r="A70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A73" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A81" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="A83" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A89" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
+      <c r="A94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
+      <c r="A96" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A97" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
+      <c r="A98" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
+      <c r="A99" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
+      <c r="A100" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
+      <c r="A101" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15">
+      <c r="A103" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15">
+      <c r="A104" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A105" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15">
+      <c r="A106" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15">
+      <c r="A107" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15">
+      <c r="A108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15">
+      <c r="A109" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15">
+      <c r="A110" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7">
+    </row>
+    <row r="111" spans="1:4" ht="15">
+      <c r="A111" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15">
+      <c r="A112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A113" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15">
+      <c r="A114" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15">
+      <c r="A115" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15">
+      <c r="A116" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15">
+      <c r="A117" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15">
+      <c r="A118" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15">
+      <c r="A119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15">
+      <c r="A120" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="8" customFormat="1" ht="15">
+      <c r="A121" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="12"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="12"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="12"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="12"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="12"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="12"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="12"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="12"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006131D81E7FE36E44885B3A04523FCF5D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c9ab67dcfa560232a36bfe42a1cf3da">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71842362-ab5d-46b4-b35f-08dc9c6328ce" xmlns:ns3="8def90a7-5747-4395-b698-a599996d7912" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85c6a7f5c224f550ecad7291476c1ef0" ns2:_="" ns3:_="">
+    <xsd:import namespace="71842362-ab5d-46b4-b35f-08dc9c6328ce"/>
+    <xsd:import namespace="8def90a7-5747-4395-b698-a599996d7912"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71842362-ab5d-46b4-b35f-08dc9c6328ce" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eaf58ba8-1e8d-4aec-a6f5-993f6032dc74" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8def90a7-5747-4395-b698-a599996d7912" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{790f85f4-cb36-4710-b643-af9b7c640f7d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8def90a7-5747-4395-b698-a599996d7912">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71842362-ab5d-46b4-b35f-08dc9c6328ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8def90a7-5747-4395-b698-a599996d7912" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11C6C99-7A10-4A95-96FC-EB882D282983}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{211CAD49-E595-42C4-9A3A-5B665001F655}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380DF39A-B0F0-4341-AFC9-AAFA55711E66}"/>
 </file>